--- a/ANN/Data2/Optimised_Networks/Predictions/2_12-12_30_0.0009_40 predictions_k_fold 3.xlsx
+++ b/ANN/Data2/Optimised_Networks/Predictions/2_12-12_30_0.0009_40 predictions_k_fold 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\ANN\Data2\Optimised_Networks\Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA25165-E085-47DF-911A-B9B7F1BB6ACD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4468477F-A527-45BC-BE2D-4071B63071CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6939,7 +6939,7 @@
   <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Z37" sqref="Z37"/>
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
